--- a/50datosdelanzamientosexitosos.xlsx
+++ b/50datosdelanzamientosexitosos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SERGIO ROMO\Documents\Semestre 2021-1\Temas Selectos de Programación\Lanzamientos Espaciales Exitosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77428617-6F4D-491A-8556-621F007EEBDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC1E21A-3C53-44D4-8B19-1AD4C03212F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C12EC2E4-22FE-4489-88A3-7C800461580F}"/>
   </bookViews>
@@ -33,19 +33,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Año</t>
   </si>
   <si>
     <t>Lanzamientos Orbitáles Exitosos</t>
   </si>
+  <si>
+    <t>MatLab 1</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>MatLab 2</t>
+  </si>
+  <si>
+    <t>Varianza Poblacional</t>
+  </si>
+  <si>
+    <t>Varianza Muestra</t>
+  </si>
+  <si>
+    <t>(x-promedio)^2</t>
+  </si>
+  <si>
+    <t>MiVarianzaMuestra</t>
+  </si>
+  <si>
+    <t>MiVarianzaPoblacional</t>
+  </si>
+  <si>
+    <t>Desviacion Estandar P</t>
+  </si>
+  <si>
+    <t>Desviacion Estandar M</t>
+  </si>
+  <si>
+    <t>MiDesviacionEst.P</t>
+  </si>
+  <si>
+    <t>MiDesviacionEst.M</t>
+  </si>
+  <si>
+    <t>Arriba</t>
+  </si>
+  <si>
+    <t>1 D.E.P.</t>
+  </si>
+  <si>
+    <t>2 D.E.P.</t>
+  </si>
+  <si>
+    <t>3 D.E.P.</t>
+  </si>
+  <si>
+    <t>4 D.E.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abajo </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,16 +116,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,15 +183,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,6 +244,5909 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" b="1"/>
+              <a:t>Lanzamientos Orbitáles Exitosos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lanzamientos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C05-4E0C-9FFB-069BFF169C8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Promedio</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$5:$BB$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>91.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C05-4E0C-9FFB-069BFF169C8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="512234288"/>
+        <c:axId val="512242816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="512234288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2019"/>
+          <c:min val="1970"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512242816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="512242816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512234288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="60000"/>
+        <a:lumOff val="40000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" b="1"/>
+              <a:t>Lanzamientos Orbitáles Exitosos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lanzamientos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33A0-495C-9704-C7176F5DEE21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Promedio</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$5:$BB$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>91.54</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>91.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-33A0-495C-9704-C7176F5DEE21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1 D.E.P Arriba</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$29:$BF$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>113.93661581578789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-33A0-495C-9704-C7176F5DEE21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2 D.E.P. Arriba</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$30:$BF$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>136.33323163157579</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-33A0-495C-9704-C7176F5DEE21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>3 D.E.P Arriba</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$31:$BF$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>158.72984744736368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-33A0-495C-9704-C7176F5DEE21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>4 D.E.P. Arriba</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$32:$BF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>181.12646326315155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-33A0-495C-9704-C7176F5DEE21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>1 D.E.P. Abajo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$35:$BF$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69.143384184212124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-33A0-495C-9704-C7176F5DEE21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>2 D.E.P. Abajo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$36:$BF$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>46.746768368424235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-33A0-495C-9704-C7176F5DEE21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>3 D.E.P. Abajo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$37:$BF$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.350152552636345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-33A0-495C-9704-C7176F5DEE21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>4 D.E.P. Abajo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$38:$BF$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9535367368484629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-33A0-495C-9704-C7176F5DEE21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="512234288"/>
+        <c:axId val="512242816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="512234288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2019"/>
+          <c:min val="1970"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512242816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="512242816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512234288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent2">
+        <a:lumMod val="60000"/>
+        <a:lumOff val="40000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6097477-7CC8-4629-81B3-618FF7AAD6ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347737</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>77106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>317499</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A38EBE-3952-489A-B4B5-A50AFE045FC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,427 +6446,2642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4B0B39-51E5-4F5E-8BA1-E0453CD653D3}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:BF88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:54" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1970</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>112</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1971</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>1972</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>105</v>
       </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9">
+        <f>SUM(B2:B51)</f>
+        <v>4577</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1973</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>109</v>
       </c>
+      <c r="D5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9">
+        <f>AVERAGE(B2:B51)</f>
+        <v>91.54</v>
+      </c>
+      <c r="F5">
+        <f>E5</f>
+        <v>91.54</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:BB5" si="0">F5</f>
+        <v>91.54</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="BA5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
+      <c r="BB5">
+        <f t="shared" si="0"/>
+        <v>91.54</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>1974</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>105</v>
       </c>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9">
+        <f>MIN(B2:B51)</f>
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1975</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>124</v>
       </c>
+      <c r="D7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9">
+        <f>MAX(B2:B51)</f>
+        <v>127</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>1976</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1977</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>1978</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1979</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>1980</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1981</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>1982</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1983</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>1984</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1985</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>1986</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="5">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1987</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>1988</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="5">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1989</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>1990</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="5">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1991</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>86</v>
       </c>
+      <c r="Q23">
+        <f>COUNT(I29:BB29)</f>
+        <v>46</v>
+      </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>1992</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="5">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1993</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>1994</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1995</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>72</v>
       </c>
+      <c r="D27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>1996</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="5">
         <v>69</v>
       </c>
+      <c r="H28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1997</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>83</v>
       </c>
+      <c r="D29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9">
+        <f>_xlfn.VAR.P(B2:B51)</f>
+        <v>501.60840000000002</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="9">
+        <f>$E$5+$F$31</f>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="J29">
+        <f>I29</f>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:BF29" si="1">J29</f>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AM29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AP29">
+        <f>AO29</f>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AS29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AW29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AY29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="AZ29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="BA29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="BB29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="BC29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="BD29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="BE29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
+      <c r="BF29">
+        <f t="shared" si="1"/>
+        <v>113.93661581578789</v>
+      </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>1998</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="5">
         <v>75</v>
       </c>
+      <c r="D30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9">
+        <f>_xlfn.VAR.S(B2:B51)</f>
+        <v>511.84530612244862</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="9">
+        <f>$E$5+($F$31*2)</f>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="J30">
+        <f>I30</f>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:BF30" si="2">J30</f>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AS30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AY30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="AZ30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="BA30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="BB30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="BC30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="BD30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="BE30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
+      <c r="BF30">
+        <f t="shared" si="2"/>
+        <v>136.33323163157579</v>
+      </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1999</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>73</v>
       </c>
+      <c r="D31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9">
+        <f>_xlfn.STDEV.P(B2:B51)</f>
+        <v>22.396615815787886</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="9">
+        <f>$E$5+($F$31*3)</f>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="J31">
+        <f>I31</f>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:BF31" si="3">J31</f>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AM31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AR31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AS31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AX31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AY31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="AZ31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="BA31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="BB31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="BC31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="BD31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="BE31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
+      <c r="BF31">
+        <f t="shared" si="3"/>
+        <v>158.72984744736368</v>
+      </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>2000</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="5">
         <v>81</v>
       </c>
+      <c r="D32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9">
+        <f>_xlfn.STDEV.S(B2:B51)</f>
+        <v>22.623998455676411</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="9">
+        <f>$E$5+($F$31*4)</f>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="J32">
+        <f>I32</f>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32:BF32" si="4">J32</f>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AM32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AQ32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AR32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AS32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AT32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AU32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AW32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AX32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AY32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="AZ32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="BA32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="BB32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="BC32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="BD32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="BE32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
+      <c r="BF32">
+        <f t="shared" si="4"/>
+        <v>181.12646326315155</v>
+      </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2001</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>2002</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="5">
         <v>60</v>
       </c>
+      <c r="H34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2003</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>60</v>
       </c>
+      <c r="H35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="9">
+        <f>$E$5-$F$31</f>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="J35">
+        <f>I35</f>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35:BF35" si="5">J35</f>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AR35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AS35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AT35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AU35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AV35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AW35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AX35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AY35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="AZ35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="BA35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="BB35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="BC35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="BD35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="BE35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
+      <c r="BF35">
+        <f t="shared" si="5"/>
+        <v>69.143384184212124</v>
+      </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>2004</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="5">
         <v>50</v>
       </c>
+      <c r="H36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="9">
+        <f>$E$5-($F$31*2)</f>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="J36">
+        <f>I36</f>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:BF36" si="6">J36</f>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AN36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AO36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AQ36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AS36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AU36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AV36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AW36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AX36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AY36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="AZ36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="BA36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="BB36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="BC36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="BD36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="BE36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
+      <c r="BF36">
+        <f t="shared" si="6"/>
+        <v>46.746768368424235</v>
+      </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2005</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>52</v>
       </c>
+      <c r="H37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="9">
+        <f>$E$5-($F$31*3)</f>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="J37">
+        <f>I37</f>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ref="K37:BF37" si="7">J37</f>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AQ37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AR37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AS37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AT37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AU37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AV37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AW37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AX37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AY37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="AZ37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="BA37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="BB37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="BC37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="BD37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="BE37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
+      <c r="BF37">
+        <f t="shared" si="7"/>
+        <v>24.350152552636345</v>
+      </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>2006</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>62</v>
       </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="9">
+        <f>$E$5-($F$31*4)</f>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="J38">
+        <f>I38</f>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ref="K38:BF38" si="8">J38</f>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AQ38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AR38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AS38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AT38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AU38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AV38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AW38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AX38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AY38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="AZ38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="BA38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="BB38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="BC38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="BD38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="BE38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
+      <c r="BF38">
+        <f t="shared" si="8"/>
+        <v>1.9535367368484629</v>
+      </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2007</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>63</v>
       </c>
+      <c r="D39">
+        <f>(B2-$E$5)^2</f>
+        <v>418.61159999999973</v>
+      </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>2008</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="5">
         <v>66</v>
       </c>
+      <c r="D40">
+        <f>(B3-$E$5)^2</f>
+        <v>754.05159999999967</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40">
+        <f>SUM(D39:D88)/COUNT(D39:D88)</f>
+        <v>501.60840000000002</v>
+      </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2009</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>73</v>
       </c>
+      <c r="D41">
+        <f>(B4-$E$5)^2</f>
+        <v>181.17159999999984</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <f>SUM(D39:D88)/(COUNT(D39:D88)-1)</f>
+        <v>511.84530612244902</v>
+      </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>2010</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="5">
         <v>70</v>
       </c>
+      <c r="D42">
+        <f>(B5-$E$5)^2</f>
+        <v>304.85159999999979</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <f>SQRT(G40)</f>
+        <v>22.396615815787886</v>
+      </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2011</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>78</v>
       </c>
+      <c r="D43">
+        <f>(B6-$E$5)^2</f>
+        <v>181.17159999999984</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43">
+        <f>SQRT(G41)</f>
+        <v>22.623998455676421</v>
+      </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>2012</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="5">
         <v>72</v>
       </c>
+      <c r="D44">
+        <f>(B7-$E$5)^2</f>
+        <v>1053.6515999999997</v>
+      </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2013</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>77</v>
       </c>
+      <c r="D45">
+        <f>(B8-$E$5)^2</f>
+        <v>1119.5715999999995</v>
+      </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>2014</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="5">
         <v>88</v>
       </c>
+      <c r="D46">
+        <f>(B9-$E$5)^2</f>
+        <v>867.89159999999958</v>
+      </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2015</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>82</v>
       </c>
+      <c r="D47">
+        <f>(B10-$E$5)^2</f>
+        <v>927.81159999999966</v>
+      </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>2016</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="5">
         <v>82</v>
       </c>
+      <c r="D48">
+        <f>(B11-$E$5)^2</f>
+        <v>181.17159999999984</v>
+      </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2017</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>83</v>
       </c>
+      <c r="D49">
+        <f>(B12-$E$5)^2</f>
+        <v>109.41159999999986</v>
+      </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>2018</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="5">
         <v>111</v>
       </c>
+      <c r="D50">
+        <f>(B13-$E$5)^2</f>
+        <v>648.21159999999963</v>
+      </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2019</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>97</v>
+      </c>
+      <c r="D51">
+        <f>(B14-$E$5)^2</f>
+        <v>754.05159999999967</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <f>(B15-$E$5)^2</f>
+        <v>1257.4115999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <f>(B16-$E$5)^2</f>
+        <v>1187.4915999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <f>(B17-$E$5)^2</f>
+        <v>700.13159999999971</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <f>(B18-$E$5)^2</f>
+        <v>109.41159999999986</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <f>(B19-$E$5)^2</f>
+        <v>270.93159999999978</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <f>(B20-$E$5)^2</f>
+        <v>504.4515999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <f>(B21-$E$5)^2</f>
+        <v>89.491599999999877</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <f>(B22-$E$5)^2</f>
+        <v>504.4515999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <f>(B23-$E$5)^2</f>
+        <v>30.691600000000069</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <f>(B24-$E$5)^2</f>
+        <v>6.0515999999999694</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <f>(B25-$E$5)^2</f>
+        <v>211.41160000000019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <f>(B26-$E$5)^2</f>
+        <v>12.531600000000044</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <f>(B27-$E$5)^2</f>
+        <v>381.81160000000023</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <f>(B28-$E$5)^2</f>
+        <v>508.05160000000029</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <f>(B29-$E$5)^2</f>
+        <v>72.931600000000103</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <f>(B30-$E$5)^2</f>
+        <v>273.57160000000022</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <f>(B31-$E$5)^2</f>
+        <v>343.73160000000024</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <f>(B32-$E$5)^2</f>
+        <v>111.09160000000013</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <f>(B33-$E$5)^2</f>
+        <v>1124.9316000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <f>(B34-$E$5)^2</f>
+        <v>994.77160000000038</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <f>(B35-$E$5)^2</f>
+        <v>994.77160000000038</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <f>(B36-$E$5)^2</f>
+        <v>1725.5716000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <f>(B37-$E$5)^2</f>
+        <v>1563.4116000000006</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <f>(B38-$E$5)^2</f>
+        <v>872.61160000000041</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <f>(B39-$E$5)^2</f>
+        <v>814.53160000000037</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <f>(B40-$E$5)^2</f>
+        <v>652.29160000000036</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <f>(B41-$E$5)^2</f>
+        <v>343.73160000000024</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <f>(B42-$E$5)^2</f>
+        <v>463.97160000000025</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <f>(B43-$E$5)^2</f>
+        <v>183.33160000000018</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <f>(B44-$E$5)^2</f>
+        <v>381.81160000000023</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <f>(B45-$E$5)^2</f>
+        <v>211.41160000000019</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <f>(B46-$E$5)^2</f>
+        <v>12.531600000000044</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <f>(B47-$E$5)^2</f>
+        <v>91.011600000000115</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <f>(B48-$E$5)^2</f>
+        <v>91.011600000000115</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <f>(B49-$E$5)^2</f>
+        <v>72.931600000000103</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <f>(B50-$E$5)^2</f>
+        <v>378.69159999999977</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <f>(B51-$E$5)^2</f>
+        <v>29.811599999999931</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D27:F27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/50datosdelanzamientosexitosos.xlsx
+++ b/50datosdelanzamientosexitosos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SERGIO ROMO\Documents\Semestre 2021-1\Temas Selectos de Programación\Lanzamientos Espaciales Exitosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC1E21A-3C53-44D4-8B19-1AD4C03212F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2E74B6-3FC8-49FD-AADC-87E1BB8D2FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C12EC2E4-22FE-4489-88A3-7C800461580F}"/>
   </bookViews>
@@ -222,13 +222,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6448,7 +6448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4B0B39-51E5-4F5E-8BA1-E0453CD653D3}">
   <dimension ref="A1:BF88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
@@ -6475,11 +6475,11 @@
       <c r="B2" s="5">
         <v>112</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -6496,10 +6496,10 @@
       <c r="B4" s="5">
         <v>105</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <f>SUM(B2:B51)</f>
         <v>4577</v>
       </c>
@@ -6511,10 +6511,10 @@
       <c r="B5" s="2">
         <v>109</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f>AVERAGE(B2:B51)</f>
         <v>91.54</v>
       </c>
@@ -6722,10 +6722,10 @@
       <c r="B6" s="5">
         <v>105</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <f>MIN(B2:B51)</f>
         <v>50</v>
       </c>
@@ -6737,10 +6737,10 @@
       <c r="B7" s="2">
         <v>124</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <f>MAX(B2:B51)</f>
         <v>127</v>
       </c>
@@ -6908,11 +6908,11 @@
       <c r="B27" s="2">
         <v>72</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -6921,10 +6921,10 @@
       <c r="B28" s="5">
         <v>69</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="9"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -6933,18 +6933,18 @@
       <c r="B29" s="2">
         <v>83</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7">
         <f>_xlfn.VAR.P(B2:B51)</f>
         <v>501.60840000000002</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="7">
         <f>$E$5+$F$31</f>
         <v>113.93661581578789</v>
       </c>
@@ -7152,18 +7152,18 @@
       <c r="B30" s="5">
         <v>75</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7">
         <f>_xlfn.VAR.S(B2:B51)</f>
         <v>511.84530612244862</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="7">
         <f>$E$5+($F$31*2)</f>
         <v>136.33323163157579</v>
       </c>
@@ -7371,18 +7371,18 @@
       <c r="B31" s="2">
         <v>73</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7">
         <f>_xlfn.STDEV.P(B2:B51)</f>
         <v>22.396615815787886</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="7">
         <f>$E$5+($F$31*3)</f>
         <v>158.72984744736368</v>
       </c>
@@ -7590,18 +7590,18 @@
       <c r="B32" s="5">
         <v>81</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7">
         <f>_xlfn.STDEV.S(B2:B51)</f>
         <v>22.623998455676411</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="7">
         <f>$E$5+($F$31*4)</f>
         <v>181.12646326315155</v>
       </c>
@@ -7817,10 +7817,10 @@
       <c r="B34" s="5">
         <v>60</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="9"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -7829,10 +7829,10 @@
       <c r="B35" s="2">
         <v>60</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="7">
         <f>$E$5-$F$31</f>
         <v>69.143384184212124</v>
       </c>
@@ -8040,10 +8040,10 @@
       <c r="B36" s="5">
         <v>50</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <f>$E$5-($F$31*2)</f>
         <v>46.746768368424235</v>
       </c>
@@ -8251,10 +8251,10 @@
       <c r="B37" s="2">
         <v>52</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="7">
         <f>$E$5-($F$31*3)</f>
         <v>24.350152552636345</v>
       </c>
@@ -8465,10 +8465,10 @@
       <c r="D38" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="7">
         <f>$E$5-($F$31*4)</f>
         <v>1.9535367368484629</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>63</v>
       </c>
       <c r="D39">
-        <f>(B2-$E$5)^2</f>
+        <f t="shared" ref="D39:D70" si="9">(B2-$E$5)^2</f>
         <v>418.61159999999973</v>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
         <v>66</v>
       </c>
       <c r="D40">
-        <f>(B3-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>754.05159999999967</v>
       </c>
       <c r="E40" t="s">
@@ -8708,7 +8708,7 @@
         <v>73</v>
       </c>
       <c r="D41">
-        <f>(B4-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>181.17159999999984</v>
       </c>
       <c r="E41" t="s">
@@ -8727,7 +8727,7 @@
         <v>70</v>
       </c>
       <c r="D42">
-        <f>(B5-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>304.85159999999979</v>
       </c>
       <c r="E42" t="s">
@@ -8746,7 +8746,7 @@
         <v>78</v>
       </c>
       <c r="D43">
-        <f>(B6-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>181.17159999999984</v>
       </c>
       <c r="E43" t="s">
@@ -8765,7 +8765,7 @@
         <v>72</v>
       </c>
       <c r="D44">
-        <f>(B7-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>1053.6515999999997</v>
       </c>
     </row>
@@ -8777,7 +8777,7 @@
         <v>77</v>
       </c>
       <c r="D45">
-        <f>(B8-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>1119.5715999999995</v>
       </c>
     </row>
@@ -8789,7 +8789,7 @@
         <v>88</v>
       </c>
       <c r="D46">
-        <f>(B9-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>867.89159999999958</v>
       </c>
     </row>
@@ -8801,7 +8801,7 @@
         <v>82</v>
       </c>
       <c r="D47">
-        <f>(B10-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>927.81159999999966</v>
       </c>
     </row>
@@ -8813,7 +8813,7 @@
         <v>82</v>
       </c>
       <c r="D48">
-        <f>(B11-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>181.17159999999984</v>
       </c>
     </row>
@@ -8825,7 +8825,7 @@
         <v>83</v>
       </c>
       <c r="D49">
-        <f>(B12-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>109.41159999999986</v>
       </c>
     </row>
@@ -8837,7 +8837,7 @@
         <v>111</v>
       </c>
       <c r="D50">
-        <f>(B13-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>648.21159999999963</v>
       </c>
     </row>
@@ -8849,229 +8849,229 @@
         <v>97</v>
       </c>
       <c r="D51">
-        <f>(B14-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>754.05159999999967</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D52">
-        <f>(B15-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>1257.4115999999995</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D53">
-        <f>(B16-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>1187.4915999999996</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D54">
-        <f>(B17-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>700.13159999999971</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D55">
-        <f>(B18-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>109.41159999999986</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D56">
-        <f>(B19-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>270.93159999999978</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D57">
-        <f>(B20-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>504.4515999999997</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D58">
-        <f>(B21-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>89.491599999999877</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D59">
-        <f>(B22-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>504.4515999999997</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D60">
-        <f>(B23-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>30.691600000000069</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D61">
-        <f>(B24-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>6.0515999999999694</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D62">
-        <f>(B25-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>211.41160000000019</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D63">
-        <f>(B26-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>12.531600000000044</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D64">
-        <f>(B27-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>381.81160000000023</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65">
-        <f>(B28-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>508.05160000000029</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66">
-        <f>(B29-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>72.931600000000103</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67">
-        <f>(B30-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>273.57160000000022</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68">
-        <f>(B31-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>343.73160000000024</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69">
-        <f>(B32-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>111.09160000000013</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70">
-        <f>(B33-$E$5)^2</f>
+        <f t="shared" si="9"/>
         <v>1124.9316000000003</v>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71">
-        <f>(B34-$E$5)^2</f>
+        <f t="shared" ref="D71:D102" si="10">(B34-$E$5)^2</f>
         <v>994.77160000000038</v>
       </c>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72">
-        <f>(B35-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>994.77160000000038</v>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73">
-        <f>(B36-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>1725.5716000000004</v>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74">
-        <f>(B37-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>1563.4116000000006</v>
       </c>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75">
-        <f>(B38-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>872.61160000000041</v>
       </c>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76">
-        <f>(B39-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>814.53160000000037</v>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77">
-        <f>(B40-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>652.29160000000036</v>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78">
-        <f>(B41-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>343.73160000000024</v>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79">
-        <f>(B42-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>463.97160000000025</v>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80">
-        <f>(B43-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>183.33160000000018</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81">
-        <f>(B44-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>381.81160000000023</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82">
-        <f>(B45-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>211.41160000000019</v>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83">
-        <f>(B46-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>12.531600000000044</v>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84">
-        <f>(B47-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>91.011600000000115</v>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85">
-        <f>(B48-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>91.011600000000115</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86">
-        <f>(B49-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>72.931600000000103</v>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87">
-        <f>(B50-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>378.69159999999977</v>
       </c>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88">
-        <f>(B51-$E$5)^2</f>
+        <f t="shared" si="10"/>
         <v>29.811599999999931</v>
       </c>
     </row>
